--- a/GNSS_statique/comparaison.xlsx
+++ b/GNSS_statique/comparaison.xlsx
@@ -5,17 +5,17 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thomas.touze\Desktop\20180404-fourgs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\ProjetDev\GNSS_statique\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FC32613-95B0-4358-86BD-46F62D8F915D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{75379879-429E-42FB-8D06-2D1502596C64}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18315" windowHeight="4920" xr2:uid="{B308A5FE-9E0D-436C-A46C-478A5786B3AA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18312" windowHeight="4920" xr2:uid="{B308A5FE-9E0D-436C-A46C-478A5786B3AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="5">
   <si>
     <t>STCX</t>
   </si>
@@ -38,11 +38,17 @@
   <si>
     <t>PRNY</t>
   </si>
+  <si>
+    <t>Compar</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <sz val="11"/>
@@ -166,8 +172,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -186,15 +201,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,82 +516,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DE983EC-7652-4A56-AE39-5C7D635A5439}">
-  <dimension ref="A1:M13"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1">
+      <c r="C1" s="4">
         <v>689.2</v>
       </c>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="3"/>
-      <c r="K1" s="7">
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="K1" s="1">
         <v>4344778.5750000002</v>
       </c>
-      <c r="L1" s="7">
+      <c r="L1" s="1">
         <f>K1+C1</f>
         <v>4345467.7750000004</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="C2" s="1">
+    <row r="2" spans="1:14">
+      <c r="C2" s="4">
         <v>-2846.212</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="3"/>
-      <c r="K2" s="7">
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="6"/>
+      <c r="K2" s="1">
         <v>495114.821</v>
       </c>
-      <c r="L2" s="7">
+      <c r="L2" s="1">
         <f t="shared" ref="L2:L3" si="0">K2+C2</f>
         <v>492268.609</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C3" s="4">
+    <row r="3" spans="1:14" ht="15" thickBot="1">
+      <c r="C3" s="7">
         <v>-342.79199999999997</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="6"/>
-      <c r="K3" s="7">
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="K3" s="1">
         <v>4629118.6960000005</v>
       </c>
-      <c r="L3" s="7">
+      <c r="L3" s="1">
         <f t="shared" si="0"/>
         <v>4628775.9040000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickTop="1">
+    <row r="4" spans="1:14" ht="15" thickTop="1">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="4">
         <v>-171.292</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="3"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="6"/>
       <c r="K4">
         <f>K1</f>
         <v>4344778.5750000002</v>
@@ -594,14 +601,14 @@
         <v>4344607.2829999998</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1">
-      <c r="C5" s="1">
+    <row r="5" spans="1:14" ht="15" customHeight="1">
+      <c r="C5" s="4">
         <v>-7702.3209999999999</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="6"/>
       <c r="K5">
         <f t="shared" ref="K5:K6" si="1">K2</f>
         <v>495114.821</v>
@@ -611,14 +618,14 @@
         <v>487412.5</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C6" s="4">
+    <row r="6" spans="1:14" ht="15" thickBot="1">
+      <c r="C6" s="7">
         <v>943.70799999999997</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="9"/>
       <c r="K6">
         <f t="shared" si="1"/>
         <v>4629118.6960000005</v>
@@ -627,146 +634,178 @@
         <f t="shared" si="2"/>
         <v>4630062.4040000001</v>
       </c>
-      <c r="M6" s="8"/>
-    </row>
-    <row r="7" spans="1:13" ht="15.75" thickTop="1">
+      <c r="M6" s="2"/>
+    </row>
+    <row r="7" spans="1:14" ht="15" thickTop="1">
       <c r="A7" t="s">
         <v>3</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="4">
         <v>6139.3890000000001</v>
       </c>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="3"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="6"/>
       <c r="K7">
         <v>4339328.3590000002</v>
       </c>
-      <c r="L7" s="9">
+      <c r="L7" s="3">
         <f>K7+C7</f>
         <v>4345467.7480000006</v>
       </c>
-      <c r="M7" s="9">
+      <c r="M7" s="3">
         <f>L1-L7</f>
         <v>2.6999999769032001E-2</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="C8" s="1">
+      <c r="N7" s="10">
+        <f>AVERAGE(L1,L7)</f>
+        <v>4345467.761500001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="C8" s="4">
         <v>10262.916999999999</v>
       </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="3"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="6"/>
       <c r="K8">
         <v>482005.68300000002</v>
       </c>
-      <c r="L8" s="9">
+      <c r="L8" s="3">
         <f t="shared" ref="L8:L12" si="3">K8+C8</f>
         <v>492268.60000000003</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="3">
         <f t="shared" ref="M8:M12" si="4">L2-L8</f>
         <v>8.9999999618157744E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C9" s="4">
+      <c r="N8" s="10">
+        <f t="shared" ref="N8:N12" si="5">AVERAGE(L2,L8)</f>
+        <v>492268.60450000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="15" thickBot="1">
+      <c r="C9" s="7">
         <v>-6418.2780000000002</v>
       </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9"/>
       <c r="K9">
         <v>4635194.1789999995</v>
       </c>
-      <c r="L9" s="9">
+      <c r="L9" s="3">
         <f t="shared" si="3"/>
         <v>4628775.9009999996</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="3">
         <f t="shared" si="4"/>
         <v>3.0000004917383194E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" thickTop="1">
+      <c r="N9" s="10">
+        <f t="shared" si="5"/>
+        <v>4628775.9024999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15" thickTop="1">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C10" s="1">
+      <c r="C10" s="4">
         <v>5278.8919999999998</v>
       </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="3"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="6"/>
       <c r="K10">
         <f>K7</f>
         <v>4339328.3590000002</v>
       </c>
-      <c r="L10" s="9">
+      <c r="L10" s="3">
         <f t="shared" si="3"/>
         <v>4344607.2510000002</v>
       </c>
-      <c r="M10" s="9">
+      <c r="M10" s="3">
         <f t="shared" si="4"/>
         <v>3.1999999657273293E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
-      <c r="C11" s="1">
+      <c r="N10" s="10">
+        <f t="shared" si="5"/>
+        <v>4344607.267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="C11" s="4">
         <v>5406.8090000000002</v>
       </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="3"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="6"/>
       <c r="K11">
-        <f t="shared" ref="K11:K12" si="5">K8</f>
+        <f t="shared" ref="K11:K12" si="6">K8</f>
         <v>482005.68300000002</v>
       </c>
-      <c r="L11" s="9">
+      <c r="L11" s="3">
         <f t="shared" si="3"/>
         <v>487412.49200000003</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="3">
         <f t="shared" si="4"/>
         <v>7.999999972525984E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:13" ht="15.75" thickBot="1">
-      <c r="C12" s="4">
+      <c r="N11" s="10">
+        <f t="shared" si="5"/>
+        <v>487412.49600000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" ht="15" thickBot="1">
+      <c r="C12" s="7">
         <v>-5131.7830000000004</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="6"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="8"/>
+      <c r="F12" s="8"/>
+      <c r="G12" s="9"/>
       <c r="K12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>4635194.1789999995</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="3">
         <f t="shared" si="3"/>
         <v>4630062.3959999997</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="3">
         <f t="shared" si="4"/>
         <v>8.0000003799796104E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" thickTop="1"/>
+      <c r="N12" s="10">
+        <f t="shared" si="5"/>
+        <v>4630062.4000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="15" thickTop="1"/>
+    <row r="28" spans="14:14">
+      <c r="N28" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
     <mergeCell ref="C10:G10"/>
     <mergeCell ref="C11:G11"/>
     <mergeCell ref="C12:G12"/>
@@ -776,9 +815,6 @@
     <mergeCell ref="C7:G7"/>
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
